--- a/WBS-DEMO.xlsx
+++ b/WBS-DEMO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="184">
   <si>
     <t xml:space="preserve">Work Breakdown Structure </t>
   </si>
@@ -565,6 +565,15 @@
   </si>
   <si>
     <t>Dùng sẵn</t>
+  </si>
+  <si>
+    <t>4.2.1.9</t>
+  </si>
+  <si>
+    <t>4.2.1.10</t>
+  </si>
+  <si>
+    <t>4.2.1.11</t>
   </si>
 </sst>
 </file>
@@ -725,9 +734,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -773,7 +779,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1113,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BO122"/>
+  <dimension ref="A3:BO127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1135,7 @@
     <col min="4" max="4" width="60.28515625" style="14" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="14" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
     <col min="8" max="9" width="15.42578125" style="14" customWidth="1"/>
     <col min="10" max="10" width="14" style="17" customWidth="1"/>
     <col min="11" max="16384" width="10.5703125" style="14"/>
@@ -1138,68 +1147,68 @@
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="22" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>121</v>
       </c>
       <c r="K11" s="14"/>
@@ -1260,7 +1269,7 @@
       <c r="BN11" s="14"/>
       <c r="BO11" s="14"/>
     </row>
-    <row r="12" spans="1:67" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="2">
         <v>1</v>
@@ -1275,17 +1284,17 @@
         <v>31</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="G12" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="23">
         <v>14</v>
       </c>
-      <c r="J12" s="25">
-        <f>I12/$I$112</f>
+      <c r="J12" s="24">
+        <f>I12/$I$116</f>
         <v>0.23728813559322035</v>
       </c>
       <c r="K12" s="14"/>
@@ -1366,8 +1375,8 @@
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
@@ -1389,8 +1398,8 @@
       <c r="H14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
@@ -1412,8 +1421,8 @@
       <c r="H15" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
@@ -1435,8 +1444,8 @@
       <c r="H16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
@@ -1458,8 +1467,8 @@
       <c r="H17" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
@@ -1481,8 +1490,8 @@
       <c r="H18" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
@@ -1504,8 +1513,8 @@
       <c r="H19" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -1513,12 +1522,12 @@
       <c r="D20" s="12"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="2:67" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="2:67" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -1532,17 +1541,17 @@
         <v>31</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <v>7</v>
       </c>
-      <c r="J21" s="25">
-        <f>I21/$I$112</f>
+      <c r="J21" s="24">
+        <f>I21/$I$116</f>
         <v>0.11864406779661017</v>
       </c>
       <c r="K21" s="14"/>
@@ -1623,8 +1632,8 @@
       <c r="H22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
@@ -1646,8 +1655,8 @@
       <c r="H23" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
@@ -1669,8 +1678,8 @@
       <c r="H24" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
@@ -1678,12 +1687,12 @@
       <c r="D25" s="12"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="2:67" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="2:67" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>3</v>
       </c>
@@ -1697,17 +1706,17 @@
         <v>31</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="23">
         <v>7</v>
       </c>
-      <c r="J26" s="25">
-        <f>I26/$I$112</f>
+      <c r="J26" s="24">
+        <f>I26/$I$116</f>
         <v>0.11864406779661017</v>
       </c>
       <c r="K26" s="14"/>
@@ -1788,8 +1797,8 @@
       <c r="H27" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
@@ -1811,8 +1820,8 @@
       <c r="H28" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
@@ -1820,12 +1829,12 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="2:67" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="2:67" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>4</v>
       </c>
@@ -1839,17 +1848,17 @@
         <v>31</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <v>60</v>
       </c>
-      <c r="J30" s="25">
-        <f>I30/$I$112</f>
+      <c r="J30" s="24">
+        <f>I30/$I$116</f>
         <v>1.0169491525423728</v>
       </c>
       <c r="K30" s="14"/>
@@ -1910,28 +1919,16 @@
       <c r="BN30" s="14"/>
       <c r="BO30" s="14"/>
     </row>
-    <row r="31" spans="2:67" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="31" spans="2:67" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -1990,38 +1987,95 @@
       <c r="BN31" s="14"/>
       <c r="BO31" s="14"/>
     </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="9" t="s">
+    <row r="32" spans="2:67" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="14"/>
+      <c r="BB32" s="14"/>
+      <c r="BC32" s="14"/>
+      <c r="BD32" s="14"/>
+      <c r="BE32" s="14"/>
+      <c r="BF32" s="14"/>
+      <c r="BG32" s="14"/>
+      <c r="BH32" s="14"/>
+      <c r="BI32" s="14"/>
+      <c r="BJ32" s="14"/>
+      <c r="BK32" s="14"/>
+      <c r="BL32" s="14"/>
+      <c r="BM32" s="14"/>
+      <c r="BN32" s="14"/>
+      <c r="BO32" s="14"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>31</v>
@@ -2033,18 +2087,18 @@
       <c r="H33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>31</v>
@@ -2056,18 +2110,18 @@
       <c r="H34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4">
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>31</v>
@@ -2079,18 +2133,18 @@
       <c r="H35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>31</v>
@@ -2102,18 +2156,18 @@
       <c r="H36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>31</v>
@@ -2125,110 +2179,98 @@
       <c r="H37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
+      <c r="B38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
         <v>4.2</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="2">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="E40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" s="4">
         <v>4</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>31</v>
@@ -2240,18 +2282,18 @@
       <c r="H42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="30"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" s="4">
         <v>4</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>31</v>
@@ -2263,18 +2305,18 @@
       <c r="H43" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="30"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>31</v>
@@ -2286,18 +2328,18 @@
       <c r="H44" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="4">
         <v>4</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>31</v>
@@ -2309,18 +2351,18 @@
       <c r="H45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="30"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4">
         <v>4</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>31</v>
@@ -2332,18 +2374,18 @@
       <c r="H46" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4">
         <v>4</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>31</v>
@@ -2355,16 +2397,18 @@
       <c r="H47" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C48" s="4">
         <v>4</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>31</v>
@@ -2376,16 +2420,18 @@
       <c r="H48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="C49" s="4">
         <v>4</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>31</v>
@@ -2397,16 +2443,18 @@
       <c r="H49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="30"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="C50" s="4">
         <v>4</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>31</v>
@@ -2418,264 +2466,252 @@
       <c r="H50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="30"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="2">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="4">
+        <v>4</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="30"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="4">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C54" s="2">
         <v>4</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
+      <c r="E54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C55" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="2:67" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
+      <c r="E55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="2:67" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
         <v>5</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="24">
+      <c r="E57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="23">
         <v>60</v>
       </c>
-      <c r="J54" s="25">
-        <f>I54/$I$112</f>
+      <c r="J57" s="24">
+        <f>I57/$I$116</f>
         <v>1.0169491525423728</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
-      <c r="AN54" s="14"/>
-      <c r="AO54" s="14"/>
-      <c r="AP54" s="14"/>
-      <c r="AQ54" s="14"/>
-      <c r="AR54" s="14"/>
-      <c r="AS54" s="14"/>
-      <c r="AT54" s="14"/>
-      <c r="AU54" s="14"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="14"/>
-      <c r="AX54" s="14"/>
-      <c r="AY54" s="14"/>
-      <c r="AZ54" s="14"/>
-      <c r="BA54" s="14"/>
-      <c r="BB54" s="14"/>
-      <c r="BC54" s="14"/>
-      <c r="BD54" s="14"/>
-      <c r="BE54" s="14"/>
-      <c r="BF54" s="14"/>
-      <c r="BG54" s="14"/>
-      <c r="BH54" s="14"/>
-      <c r="BI54" s="14"/>
-      <c r="BJ54" s="14"/>
-      <c r="BK54" s="14"/>
-      <c r="BL54" s="14"/>
-      <c r="BM54" s="14"/>
-      <c r="BN54" s="14"/>
-      <c r="BO54" s="14"/>
-    </row>
-    <row r="55" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="14"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="14"/>
+      <c r="AM57" s="14"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="14"/>
+      <c r="AP57" s="14"/>
+      <c r="AQ57" s="14"/>
+      <c r="AR57" s="14"/>
+      <c r="AS57" s="14"/>
+      <c r="AT57" s="14"/>
+      <c r="AU57" s="14"/>
+      <c r="AV57" s="14"/>
+      <c r="AW57" s="14"/>
+      <c r="AX57" s="14"/>
+      <c r="AY57" s="14"/>
+      <c r="AZ57" s="14"/>
+      <c r="BA57" s="14"/>
+      <c r="BB57" s="14"/>
+      <c r="BC57" s="14"/>
+      <c r="BD57" s="14"/>
+      <c r="BE57" s="14"/>
+      <c r="BF57" s="14"/>
+      <c r="BG57" s="14"/>
+      <c r="BH57" s="14"/>
+      <c r="BI57" s="14"/>
+      <c r="BJ57" s="14"/>
+      <c r="BK57" s="14"/>
+      <c r="BL57" s="14"/>
+      <c r="BM57" s="14"/>
+      <c r="BN57" s="14"/>
+      <c r="BO57" s="14"/>
+    </row>
+    <row r="58" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B58" s="8">
         <v>5.2</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C58" s="2">
         <v>2</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="31"/>
-    </row>
-    <row r="56" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="4">
-        <v>3</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="31"/>
-    </row>
-    <row r="57" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="2">
-        <v>3</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="E58" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="31"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C59" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>31</v>
@@ -2687,64 +2723,64 @@
       <c r="H59" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="31"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="4">
-        <v>4</v>
+      <c r="B60" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="31"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="4">
-        <v>4</v>
+      <c r="B61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="31"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C62" s="4">
         <v>4</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>31</v>
@@ -2756,18 +2792,18 @@
       <c r="H62" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="31"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C63" s="4">
         <v>4</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>31</v>
@@ -2779,41 +2815,41 @@
       <c r="H63" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="31"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="2">
-        <v>3</v>
+      <c r="B64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="4">
+        <v>4</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="23" t="s">
+      <c r="G64" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="31"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="4">
         <v>4</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>31</v>
@@ -2825,18 +2861,18 @@
       <c r="H65" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="31"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="4">
         <v>4</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>31</v>
@@ -2848,41 +2884,41 @@
       <c r="H66" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="31"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="4">
-        <v>4</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="B67" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="31"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C68" s="4">
         <v>4</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>153</v>
+      <c r="D68" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>31</v>
@@ -2894,41 +2930,41 @@
       <c r="H68" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="31"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="30"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C69" s="4">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>154</v>
+        <v>4</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I69" s="29"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="30"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="9">
+      <c r="B70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="4">
         <v>4</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>31</v>
@@ -2940,87 +2976,75 @@
       <c r="H70" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="29"/>
+      <c r="I70" s="28"/>
       <c r="J70" s="30"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="B71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="4">
         <v>4</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I71" s="29"/>
+      <c r="I71" s="28"/>
       <c r="J71" s="30"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="4">
-        <v>5</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>156</v>
+        <v>3</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="30"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="4">
-        <v>5</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="30"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="4">
-        <v>5</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>157</v>
+      <c r="B74" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="9">
+        <v>4</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>31</v>
@@ -3032,41 +3056,41 @@
       <c r="H74" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="30"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="4">
-        <v>5</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="5" t="s">
+      <c r="B75" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="30"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C76" s="4">
         <v>5</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>159</v>
+      <c r="D76" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>31</v>
@@ -3078,18 +3102,18 @@
       <c r="H76" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I76" s="29"/>
-      <c r="J76" s="30"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C77" s="4">
         <v>5</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>31</v>
@@ -3101,18 +3125,18 @@
       <c r="H77" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="30"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C78" s="4">
         <v>5</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>31</v>
@@ -3124,18 +3148,18 @@
       <c r="H78" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I78" s="29"/>
-      <c r="J78" s="30"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C79" s="4">
         <v>5</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>31</v>
@@ -3147,18 +3171,18 @@
       <c r="H79" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="30"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" s="4">
         <v>5</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>31</v>
@@ -3170,18 +3194,18 @@
       <c r="H80" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I80" s="29"/>
-      <c r="J80" s="30"/>
-    </row>
-    <row r="81" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="4">
         <v>5</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>31</v>
@@ -3193,18 +3217,18 @@
       <c r="H81" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I81" s="29"/>
-      <c r="J81" s="30"/>
-    </row>
-    <row r="82" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I81" s="28"/>
+      <c r="J81" s="29"/>
+    </row>
+    <row r="82" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C82" s="4">
         <v>5</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>31</v>
@@ -3216,18 +3240,18 @@
       <c r="H82" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I82" s="29"/>
-      <c r="J82" s="30"/>
-    </row>
-    <row r="83" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I82" s="28"/>
+      <c r="J82" s="29"/>
+    </row>
+    <row r="83" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C83" s="4">
         <v>5</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>31</v>
@@ -3239,18 +3263,18 @@
       <c r="H83" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I83" s="29"/>
-      <c r="J83" s="30"/>
-    </row>
-    <row r="84" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I83" s="28"/>
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" s="4">
         <v>5</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>63</v>
+      <c r="D84" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>31</v>
@@ -3262,18 +3286,18 @@
       <c r="H84" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="30"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" s="4">
         <v>5</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>31</v>
@@ -3285,18 +3309,18 @@
       <c r="H85" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I85" s="29"/>
-      <c r="J85" s="30"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C86" s="4">
         <v>5</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>31</v>
@@ -3308,18 +3332,18 @@
       <c r="H86" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="30"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C87" s="4">
         <v>5</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>31</v>
@@ -3331,18 +3355,18 @@
       <c r="H87" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I87" s="29"/>
-      <c r="J87" s="30"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C88" s="4">
         <v>5</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>170</v>
+      <c r="D88" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>31</v>
@@ -3354,41 +3378,41 @@
       <c r="H88" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I88" s="27"/>
-      <c r="J88" s="28"/>
-    </row>
-    <row r="89" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="2">
-        <v>4</v>
+      <c r="I88" s="28"/>
+      <c r="J88" s="29"/>
+    </row>
+    <row r="89" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="4">
+        <v>5</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F89" s="5"/>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I89" s="29"/>
-      <c r="J89" s="30"/>
-    </row>
-    <row r="90" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C90" s="4">
         <v>5</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>31</v>
@@ -3400,258 +3424,87 @@
       <c r="H90" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I90" s="27"/>
-      <c r="J90" s="28"/>
-    </row>
-    <row r="91" spans="2:67" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>112</v>
+      <c r="I90" s="28"/>
+      <c r="J90" s="29"/>
+    </row>
+    <row r="91" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C91" s="4">
-        <v>3</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I91" s="29"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-      <c r="AC91" s="14"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="14"/>
-      <c r="AF91" s="14"/>
-      <c r="AG91" s="14"/>
-      <c r="AH91" s="14"/>
-      <c r="AI91" s="14"/>
-      <c r="AJ91" s="14"/>
-      <c r="AK91" s="14"/>
-      <c r="AL91" s="14"/>
-      <c r="AM91" s="14"/>
-      <c r="AN91" s="14"/>
-      <c r="AO91" s="14"/>
-      <c r="AP91" s="14"/>
-      <c r="AQ91" s="14"/>
-      <c r="AR91" s="14"/>
-      <c r="AS91" s="14"/>
-      <c r="AT91" s="14"/>
-      <c r="AU91" s="14"/>
-      <c r="AV91" s="14"/>
-      <c r="AW91" s="14"/>
-      <c r="AX91" s="14"/>
-      <c r="AY91" s="14"/>
-      <c r="AZ91" s="14"/>
-      <c r="BA91" s="14"/>
-      <c r="BB91" s="14"/>
-      <c r="BC91" s="14"/>
-      <c r="BD91" s="14"/>
-      <c r="BE91" s="14"/>
-      <c r="BF91" s="14"/>
-      <c r="BG91" s="14"/>
-      <c r="BH91" s="14"/>
-      <c r="BI91" s="14"/>
-      <c r="BJ91" s="14"/>
-      <c r="BK91" s="14"/>
-      <c r="BL91" s="14"/>
-      <c r="BM91" s="14"/>
-      <c r="BN91" s="14"/>
-      <c r="BO91" s="14"/>
-    </row>
-    <row r="92" spans="2:67" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="s">
-        <v>113</v>
+      <c r="I91" s="28"/>
+      <c r="J91" s="29"/>
+    </row>
+    <row r="92" spans="2:67" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C92" s="4">
-        <v>3</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>173</v>
+        <v>5</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I92" s="29"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="14"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="14"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="14"/>
-      <c r="Z92" s="14"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="14"/>
-      <c r="AC92" s="14"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="14"/>
-      <c r="AF92" s="14"/>
-      <c r="AG92" s="14"/>
-      <c r="AH92" s="14"/>
-      <c r="AI92" s="14"/>
-      <c r="AJ92" s="14"/>
-      <c r="AK92" s="14"/>
-      <c r="AL92" s="14"/>
-      <c r="AM92" s="14"/>
-      <c r="AN92" s="14"/>
-      <c r="AO92" s="14"/>
-      <c r="AP92" s="14"/>
-      <c r="AQ92" s="14"/>
-      <c r="AR92" s="14"/>
-      <c r="AS92" s="14"/>
-      <c r="AT92" s="14"/>
-      <c r="AU92" s="14"/>
-      <c r="AV92" s="14"/>
-      <c r="AW92" s="14"/>
-      <c r="AX92" s="14"/>
-      <c r="AY92" s="14"/>
-      <c r="AZ92" s="14"/>
-      <c r="BA92" s="14"/>
-      <c r="BB92" s="14"/>
-      <c r="BC92" s="14"/>
-      <c r="BD92" s="14"/>
-      <c r="BE92" s="14"/>
-      <c r="BF92" s="14"/>
-      <c r="BG92" s="14"/>
-      <c r="BH92" s="14"/>
-      <c r="BI92" s="14"/>
-      <c r="BJ92" s="14"/>
-      <c r="BK92" s="14"/>
-      <c r="BL92" s="14"/>
-      <c r="BM92" s="14"/>
-      <c r="BN92" s="14"/>
-      <c r="BO92" s="14"/>
-    </row>
-    <row r="93" spans="2:67" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="2">
-        <v>6.2</v>
+      <c r="I92" s="26"/>
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C93" s="2">
-        <v>2</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>174</v>
+        <v>4</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="23" t="s">
+      <c r="F93" s="5"/>
+      <c r="G93" s="22" t="s">
         <v>117</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I93" s="29"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="14"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="14"/>
-      <c r="Z93" s="14"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="14"/>
-      <c r="AC93" s="14"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="14"/>
-      <c r="AF93" s="14"/>
-      <c r="AG93" s="14"/>
-      <c r="AH93" s="14"/>
-      <c r="AI93" s="14"/>
-      <c r="AJ93" s="14"/>
-      <c r="AK93" s="14"/>
-      <c r="AL93" s="14"/>
-      <c r="AM93" s="14"/>
-      <c r="AN93" s="14"/>
-      <c r="AO93" s="14"/>
-      <c r="AP93" s="14"/>
-      <c r="AQ93" s="14"/>
-      <c r="AR93" s="14"/>
-      <c r="AS93" s="14"/>
-      <c r="AT93" s="14"/>
-      <c r="AU93" s="14"/>
-      <c r="AV93" s="14"/>
-      <c r="AW93" s="14"/>
-      <c r="AX93" s="14"/>
-      <c r="AY93" s="14"/>
-      <c r="AZ93" s="14"/>
-      <c r="BA93" s="14"/>
-      <c r="BB93" s="14"/>
-      <c r="BC93" s="14"/>
-      <c r="BD93" s="14"/>
-      <c r="BE93" s="14"/>
-      <c r="BF93" s="14"/>
-      <c r="BG93" s="14"/>
-      <c r="BH93" s="14"/>
-      <c r="BI93" s="14"/>
-      <c r="BJ93" s="14"/>
-      <c r="BK93" s="14"/>
-      <c r="BL93" s="14"/>
-      <c r="BM93" s="14"/>
-      <c r="BN93" s="14"/>
-      <c r="BO93" s="14"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="s">
-        <v>114</v>
+      <c r="B94" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C94" s="4">
-        <v>3</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>175</v>
+        <v>5</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>31</v>
@@ -3663,70 +3516,191 @@
       <c r="H94" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="30"/>
-    </row>
-    <row r="95" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="I94" s="26"/>
+      <c r="J94" s="27"/>
+    </row>
+    <row r="95" spans="2:67" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>176</v>
+      <c r="D95" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="5"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I95" s="29"/>
-      <c r="J95" s="30"/>
-    </row>
-    <row r="96" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="14"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="14"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="14"/>
+      <c r="AC95" s="14"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="14"/>
+      <c r="AF95" s="14"/>
+      <c r="AG95" s="14"/>
+      <c r="AH95" s="14"/>
+      <c r="AI95" s="14"/>
+      <c r="AJ95" s="14"/>
+      <c r="AK95" s="14"/>
+      <c r="AL95" s="14"/>
+      <c r="AM95" s="14"/>
+      <c r="AN95" s="14"/>
+      <c r="AO95" s="14"/>
+      <c r="AP95" s="14"/>
+      <c r="AQ95" s="14"/>
+      <c r="AR95" s="14"/>
+      <c r="AS95" s="14"/>
+      <c r="AT95" s="14"/>
+      <c r="AU95" s="14"/>
+      <c r="AV95" s="14"/>
+      <c r="AW95" s="14"/>
+      <c r="AX95" s="14"/>
+      <c r="AY95" s="14"/>
+      <c r="AZ95" s="14"/>
+      <c r="BA95" s="14"/>
+      <c r="BB95" s="14"/>
+      <c r="BC95" s="14"/>
+      <c r="BD95" s="14"/>
+      <c r="BE95" s="14"/>
+      <c r="BF95" s="14"/>
+      <c r="BG95" s="14"/>
+      <c r="BH95" s="14"/>
+      <c r="BI95" s="14"/>
+      <c r="BJ95" s="14"/>
+      <c r="BK95" s="14"/>
+      <c r="BL95" s="14"/>
+      <c r="BM95" s="14"/>
+      <c r="BN95" s="14"/>
+      <c r="BO95" s="14"/>
+    </row>
+    <row r="96" spans="2:67" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="4">
+        <v>3</v>
+      </c>
       <c r="D96" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="30"/>
-    </row>
-    <row r="97" spans="2:67" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I96" s="28"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="14"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="14"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="14"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="14"/>
+      <c r="AF96" s="14"/>
+      <c r="AG96" s="14"/>
+      <c r="AH96" s="14"/>
+      <c r="AI96" s="14"/>
+      <c r="AJ96" s="14"/>
+      <c r="AK96" s="14"/>
+      <c r="AL96" s="14"/>
+      <c r="AM96" s="14"/>
+      <c r="AN96" s="14"/>
+      <c r="AO96" s="14"/>
+      <c r="AP96" s="14"/>
+      <c r="AQ96" s="14"/>
+      <c r="AR96" s="14"/>
+      <c r="AS96" s="14"/>
+      <c r="AT96" s="14"/>
+      <c r="AU96" s="14"/>
+      <c r="AV96" s="14"/>
+      <c r="AW96" s="14"/>
+      <c r="AX96" s="14"/>
+      <c r="AY96" s="14"/>
+      <c r="AZ96" s="14"/>
+      <c r="BA96" s="14"/>
+      <c r="BB96" s="14"/>
+      <c r="BC96" s="14"/>
+      <c r="BD96" s="14"/>
+      <c r="BE96" s="14"/>
+      <c r="BF96" s="14"/>
+      <c r="BG96" s="14"/>
+      <c r="BH96" s="14"/>
+      <c r="BI96" s="14"/>
+      <c r="BJ96" s="14"/>
+      <c r="BK96" s="14"/>
+      <c r="BL96" s="14"/>
+      <c r="BM96" s="14"/>
+      <c r="BN96" s="14"/>
+      <c r="BO96" s="14"/>
+    </row>
+    <row r="97" spans="2:67" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
-      </c>
-      <c r="D97" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="E97" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="G97" s="23" t="s">
-        <v>118</v>
+      <c r="G97" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I97" s="24">
-        <v>4</v>
-      </c>
-      <c r="J97" s="25">
-        <f>I97/$I$112</f>
-        <v>6.7796610169491525E-2</v>
-      </c>
+      <c r="I97" s="28"/>
+      <c r="J97" s="29"/>
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
@@ -3786,209 +3760,261 @@
       <c r="BO97" s="14"/>
     </row>
     <row r="98" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B98" s="4">
-        <v>7.1</v>
+      <c r="B98" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C98" s="4">
-        <v>2</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>67</v>
+        <v>3</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I98" s="27"/>
-      <c r="J98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="99" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B99" s="4">
-        <v>7.2</v>
+      <c r="B99" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C99" s="4">
-        <v>2</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I99" s="28"/>
+      <c r="J99" s="29"/>
+    </row>
+    <row r="100" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="29"/>
+    </row>
+    <row r="101" spans="2:67" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I99" s="29"/>
-      <c r="J99" s="30"/>
-    </row>
-    <row r="100" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B100" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="H101" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I101" s="23">
+        <v>4</v>
+      </c>
+      <c r="J101" s="24">
+        <f>I101/$I$116</f>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="14"/>
+      <c r="AC101" s="14"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="14"/>
+      <c r="AF101" s="14"/>
+      <c r="AG101" s="14"/>
+      <c r="AH101" s="14"/>
+      <c r="AI101" s="14"/>
+      <c r="AJ101" s="14"/>
+      <c r="AK101" s="14"/>
+      <c r="AL101" s="14"/>
+      <c r="AM101" s="14"/>
+      <c r="AN101" s="14"/>
+      <c r="AO101" s="14"/>
+      <c r="AP101" s="14"/>
+      <c r="AQ101" s="14"/>
+      <c r="AR101" s="14"/>
+      <c r="AS101" s="14"/>
+      <c r="AT101" s="14"/>
+      <c r="AU101" s="14"/>
+      <c r="AV101" s="14"/>
+      <c r="AW101" s="14"/>
+      <c r="AX101" s="14"/>
+      <c r="AY101" s="14"/>
+      <c r="AZ101" s="14"/>
+      <c r="BA101" s="14"/>
+      <c r="BB101" s="14"/>
+      <c r="BC101" s="14"/>
+      <c r="BD101" s="14"/>
+      <c r="BE101" s="14"/>
+      <c r="BF101" s="14"/>
+      <c r="BG101" s="14"/>
+      <c r="BH101" s="14"/>
+      <c r="BI101" s="14"/>
+      <c r="BJ101" s="14"/>
+      <c r="BK101" s="14"/>
+      <c r="BL101" s="14"/>
+      <c r="BM101" s="14"/>
+      <c r="BN101" s="14"/>
+      <c r="BO101" s="14"/>
+    </row>
+    <row r="102" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="C102" s="4">
         <v>2</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="9" t="s">
+      <c r="D102" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I100" s="27"/>
-      <c r="J100" s="28"/>
-    </row>
-    <row r="101" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B101" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="C101" s="4">
-        <v>2</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I101" s="29"/>
-      <c r="J101" s="30"/>
-    </row>
-    <row r="102" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="30"/>
+      <c r="H102" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I102" s="26"/>
+      <c r="J102" s="27"/>
     </row>
     <row r="103" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="C103" s="4">
         <v>2</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I103" s="29"/>
-      <c r="J103" s="30"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="29"/>
     </row>
     <row r="104" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
-        <v>8.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="C104" s="4">
         <v>2</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>15</v>
+      <c r="D104" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I104" s="27"/>
-      <c r="J104" s="28"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="27"/>
     </row>
     <row r="105" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B105" s="4">
-        <v>8.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>16</v>
+      <c r="D105" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I105" s="29"/>
-      <c r="J105" s="30"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="29"/>
     </row>
     <row r="106" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B106" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="C106" s="4">
-        <v>2</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I106" s="27"/>
-      <c r="J106" s="28"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B107" s="4">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="C107" s="4">
         <v>2</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>31</v>
@@ -4000,117 +4026,63 @@
       <c r="H107" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I107" s="29"/>
-      <c r="J107" s="30"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="29"/>
     </row>
     <row r="108" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="B108" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C108" s="4">
+        <v>2</v>
+      </c>
       <c r="D108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="30"/>
-    </row>
-    <row r="109" spans="2:67" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="2">
-        <v>9</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1</v>
+      <c r="G108" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I108" s="26"/>
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C109" s="4">
+        <v>2</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I109" s="24">
-        <v>7</v>
-      </c>
-      <c r="J109" s="25">
-        <f>I109/$I$112</f>
-        <v>0.11864406779661017</v>
-      </c>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="14"/>
-      <c r="U109" s="14"/>
-      <c r="V109" s="14"/>
-      <c r="W109" s="14"/>
-      <c r="X109" s="14"/>
-      <c r="Y109" s="14"/>
-      <c r="Z109" s="14"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
-      <c r="AD109" s="14"/>
-      <c r="AE109" s="14"/>
-      <c r="AF109" s="14"/>
-      <c r="AG109" s="14"/>
-      <c r="AH109" s="14"/>
-      <c r="AI109" s="14"/>
-      <c r="AJ109" s="14"/>
-      <c r="AK109" s="14"/>
-      <c r="AL109" s="14"/>
-      <c r="AM109" s="14"/>
-      <c r="AN109" s="14"/>
-      <c r="AO109" s="14"/>
-      <c r="AP109" s="14"/>
-      <c r="AQ109" s="14"/>
-      <c r="AR109" s="14"/>
-      <c r="AS109" s="14"/>
-      <c r="AT109" s="14"/>
-      <c r="AU109" s="14"/>
-      <c r="AV109" s="14"/>
-      <c r="AW109" s="14"/>
-      <c r="AX109" s="14"/>
-      <c r="AY109" s="14"/>
-      <c r="AZ109" s="14"/>
-      <c r="BA109" s="14"/>
-      <c r="BB109" s="14"/>
-      <c r="BC109" s="14"/>
-      <c r="BD109" s="14"/>
-      <c r="BE109" s="14"/>
-      <c r="BF109" s="14"/>
-      <c r="BG109" s="14"/>
-      <c r="BH109" s="14"/>
-      <c r="BI109" s="14"/>
-      <c r="BJ109" s="14"/>
-      <c r="BK109" s="14"/>
-      <c r="BL109" s="14"/>
-      <c r="BM109" s="14"/>
-      <c r="BN109" s="14"/>
-      <c r="BO109" s="14"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B110" s="4">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="C110" s="4">
         <v>2</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
         <v>31</v>
       </c>
@@ -4121,18 +4093,18 @@
       <c r="H110" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I110" s="29"/>
-      <c r="J110" s="30"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="27"/>
     </row>
     <row r="111" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B111" s="4">
-        <v>9.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="C111" s="4">
         <v>2</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>30</v>
+      <c r="D111" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>31</v>
@@ -4144,65 +4116,332 @@
       <c r="H111" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I111" s="32"/>
-      <c r="J111" s="33"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="D112" s="5"/>
-      <c r="I112" s="34">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="29"/>
+    </row>
+    <row r="113" spans="2:67" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>9</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I113" s="23">
+        <v>7</v>
+      </c>
+      <c r="J113" s="24">
+        <f>I113/$I$116</f>
+        <v>0.11864406779661017</v>
+      </c>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="14"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="14"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="14"/>
+      <c r="Z113" s="14"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="14"/>
+      <c r="AC113" s="14"/>
+      <c r="AD113" s="14"/>
+      <c r="AE113" s="14"/>
+      <c r="AF113" s="14"/>
+      <c r="AG113" s="14"/>
+      <c r="AH113" s="14"/>
+      <c r="AI113" s="14"/>
+      <c r="AJ113" s="14"/>
+      <c r="AK113" s="14"/>
+      <c r="AL113" s="14"/>
+      <c r="AM113" s="14"/>
+      <c r="AN113" s="14"/>
+      <c r="AO113" s="14"/>
+      <c r="AP113" s="14"/>
+      <c r="AQ113" s="14"/>
+      <c r="AR113" s="14"/>
+      <c r="AS113" s="14"/>
+      <c r="AT113" s="14"/>
+      <c r="AU113" s="14"/>
+      <c r="AV113" s="14"/>
+      <c r="AW113" s="14"/>
+      <c r="AX113" s="14"/>
+      <c r="AY113" s="14"/>
+      <c r="AZ113" s="14"/>
+      <c r="BA113" s="14"/>
+      <c r="BB113" s="14"/>
+      <c r="BC113" s="14"/>
+      <c r="BD113" s="14"/>
+      <c r="BE113" s="14"/>
+      <c r="BF113" s="14"/>
+      <c r="BG113" s="14"/>
+      <c r="BH113" s="14"/>
+      <c r="BI113" s="14"/>
+      <c r="BJ113" s="14"/>
+      <c r="BK113" s="14"/>
+      <c r="BL113" s="14"/>
+      <c r="BM113" s="14"/>
+      <c r="BN113" s="14"/>
+      <c r="BO113" s="14"/>
+    </row>
+    <row r="114" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B114" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="C114" s="4">
+        <v>2</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I114" s="28"/>
+      <c r="J114" s="29"/>
+    </row>
+    <row r="115" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B115" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C115" s="4">
+        <v>2</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I115" s="31"/>
+      <c r="J115" s="32"/>
+    </row>
+    <row r="116" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="34">
         <v>59</v>
       </c>
-      <c r="J112" s="17">
-        <f>SUM(J12:J111)</f>
+      <c r="J116" s="29">
+        <f>SUM(J12:J115)</f>
         <v>2.6949152542372881</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="7" t="s">
+    <row r="117" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="5" t="s">
+      <c r="E117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="29"/>
+    </row>
+    <row r="118" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="12" t="s">
+      <c r="E118" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="29"/>
+    </row>
+    <row r="119" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="12" t="s">
+      <c r="E119" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="29"/>
+    </row>
+    <row r="120" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="12" t="s">
+      <c r="E120" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="29"/>
+    </row>
+    <row r="121" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="12" t="s">
+      <c r="E121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="29"/>
+    </row>
+    <row r="122" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="12"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="7" t="s">
+      <c r="E122" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="29"/>
+    </row>
+    <row r="123" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="29"/>
+    </row>
+    <row r="124" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="12" t="s">
+      <c r="E124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="29"/>
+    </row>
+    <row r="125" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="5" t="s">
+      <c r="E125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="29"/>
+    </row>
+    <row r="126" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="29"/>
+    </row>
+    <row r="127" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="I127" s="14">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
